--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H2">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I2">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J2">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N2">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O2">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P2">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q2">
-        <v>12.73227751510245</v>
+        <v>34.89317196300266</v>
       </c>
       <c r="R2">
-        <v>114.590497635922</v>
+        <v>314.038547667024</v>
       </c>
       <c r="S2">
-        <v>0.008413023353057389</v>
+        <v>0.01815947589524384</v>
       </c>
       <c r="T2">
-        <v>0.008413023353057388</v>
+        <v>0.01815947589524384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H3">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I3">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J3">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.173509</v>
       </c>
       <c r="O3">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P3">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q3">
-        <v>70.11374166197801</v>
+        <v>78.90731931649901</v>
       </c>
       <c r="R3">
-        <v>631.0236749578021</v>
+        <v>710.1658738484911</v>
       </c>
       <c r="S3">
-        <v>0.04632859637820325</v>
+        <v>0.04106578687101296</v>
       </c>
       <c r="T3">
-        <v>0.04632859637820324</v>
+        <v>0.04106578687101296</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H4">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I4">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J4">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N4">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O4">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P4">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q4">
-        <v>15.45137828086844</v>
+        <v>48.39628777254922</v>
       </c>
       <c r="R4">
-        <v>139.062404527816</v>
+        <v>435.566589952943</v>
       </c>
       <c r="S4">
-        <v>0.01020970569952457</v>
+        <v>0.02518691112853656</v>
       </c>
       <c r="T4">
-        <v>0.01020970569952457</v>
+        <v>0.02518691112853656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H5">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I5">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J5">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N5">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O5">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P5">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q5">
-        <v>5.928554940513333</v>
+        <v>6.224157160071222</v>
       </c>
       <c r="R5">
-        <v>53.35699446461999</v>
+        <v>56.01741444064101</v>
       </c>
       <c r="S5">
-        <v>0.003917372292997897</v>
+        <v>0.003239242108351916</v>
       </c>
       <c r="T5">
-        <v>0.003917372292997896</v>
+        <v>0.003239242108351916</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N6">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O6">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P6">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q6">
-        <v>82.39351992268591</v>
+        <v>200.6380351058613</v>
       </c>
       <c r="R6">
-        <v>741.5416793041732</v>
+        <v>1805.742315952752</v>
       </c>
       <c r="S6">
-        <v>0.05444262477219328</v>
+        <v>0.1044181814722139</v>
       </c>
       <c r="T6">
-        <v>0.05444262477219326</v>
+        <v>0.1044181814722139</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>11.173509</v>
       </c>
       <c r="O7">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P7">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q7">
         <v>453.7222789581771</v>
@@ -883,10 +883,10 @@
         <v>4083.500510623594</v>
       </c>
       <c r="S7">
-        <v>0.2998030889720872</v>
+        <v>0.2361309770465218</v>
       </c>
       <c r="T7">
-        <v>0.2998030889720872</v>
+        <v>0.2361309770465218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N8">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O8">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P8">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q8">
-        <v>99.98945143220489</v>
+        <v>278.2818396503988</v>
       </c>
       <c r="R8">
-        <v>899.905062889844</v>
+        <v>2504.536556853589</v>
       </c>
       <c r="S8">
-        <v>0.06606937281729276</v>
+        <v>0.144826396538948</v>
       </c>
       <c r="T8">
-        <v>0.06606937281729276</v>
+        <v>0.144826396538948</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N9">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O9">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P9">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q9">
-        <v>38.36505362253667</v>
+        <v>35.78931328200478</v>
       </c>
       <c r="R9">
-        <v>345.28548260283</v>
+        <v>322.103819538043</v>
       </c>
       <c r="S9">
-        <v>0.02535022439503456</v>
+        <v>0.01862585529744911</v>
       </c>
       <c r="T9">
-        <v>0.02535022439503455</v>
+        <v>0.01862585529744911</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H10">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N10">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O10">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P10">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q10">
-        <v>30.45377302016011</v>
+        <v>61.27993164554132</v>
       </c>
       <c r="R10">
-        <v>274.083957181441</v>
+        <v>551.519384809872</v>
       </c>
       <c r="S10">
-        <v>0.02012273949443951</v>
+        <v>0.03189195418402532</v>
       </c>
       <c r="T10">
-        <v>0.0201227394944395</v>
+        <v>0.03189195418402533</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H11">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>11.173509</v>
       </c>
       <c r="O11">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P11">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q11">
-        <v>167.701966253509</v>
+        <v>138.578262222047</v>
       </c>
       <c r="R11">
-        <v>1509.317696281581</v>
+        <v>1247.204359998423</v>
       </c>
       <c r="S11">
-        <v>0.1108113263138422</v>
+        <v>0.07212037401169215</v>
       </c>
       <c r="T11">
-        <v>0.1108113263138422</v>
+        <v>0.07212037401169216</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H12">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N12">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O12">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P12">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q12">
-        <v>36.95747021348311</v>
+        <v>84.99431377990875</v>
       </c>
       <c r="R12">
-        <v>332.6172319213479</v>
+        <v>764.9488240191789</v>
       </c>
       <c r="S12">
-        <v>0.02442014475471119</v>
+        <v>0.04423364530904704</v>
       </c>
       <c r="T12">
-        <v>0.02442014475471119</v>
+        <v>0.04423364530904705</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H13">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N13">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O13">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P13">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q13">
-        <v>14.18024907812333</v>
+        <v>10.93096167137478</v>
       </c>
       <c r="R13">
-        <v>127.62224170311</v>
+        <v>98.378655042373</v>
       </c>
       <c r="S13">
-        <v>0.009369790008497331</v>
+        <v>0.005688807403168599</v>
       </c>
       <c r="T13">
-        <v>0.009369790008497327</v>
+        <v>0.005688807403168601</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H14">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I14">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J14">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N14">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O14">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P14">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q14">
-        <v>59.29799999022168</v>
+        <v>101.279086796048</v>
       </c>
       <c r="R14">
-        <v>533.681999911995</v>
+        <v>911.5117811644319</v>
       </c>
       <c r="S14">
-        <v>0.03918194982127814</v>
+        <v>0.05270874018891791</v>
       </c>
       <c r="T14">
-        <v>0.03918194982127812</v>
+        <v>0.05270874018891791</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H15">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I15">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J15">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>11.173509</v>
       </c>
       <c r="O15">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P15">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q15">
-        <v>326.5405303532551</v>
+        <v>229.032237320607</v>
       </c>
       <c r="R15">
-        <v>2938.864773179295</v>
+        <v>2061.290135885463</v>
       </c>
       <c r="S15">
-        <v>0.2157660406257314</v>
+        <v>0.1191953943673347</v>
       </c>
       <c r="T15">
-        <v>0.2157660406257313</v>
+        <v>0.1191953943673347</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H16">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I16">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J16">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N16">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O16">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P16">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q16">
-        <v>71.96166028120666</v>
+        <v>140.4725209596776</v>
       </c>
       <c r="R16">
-        <v>647.65494253086</v>
+        <v>1264.252688637099</v>
       </c>
       <c r="S16">
-        <v>0.04754963342202197</v>
+        <v>0.07310620430312659</v>
       </c>
       <c r="T16">
-        <v>0.04754963342202196</v>
+        <v>0.07310620430312659</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H17">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I17">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J17">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N17">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O17">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P17">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q17">
-        <v>27.61104212405</v>
+        <v>18.06591140282366</v>
       </c>
       <c r="R17">
-        <v>248.49937911645</v>
+        <v>162.593202625413</v>
       </c>
       <c r="S17">
-        <v>0.01824436687908738</v>
+        <v>0.009402053874409528</v>
       </c>
       <c r="T17">
-        <v>0.01824436687908737</v>
+        <v>0.00940205387440953</v>
       </c>
     </row>
   </sheetData>
